--- a/cleanFiles/output_Phase.xlsx
+++ b/cleanFiles/output_Phase.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Site/Freq</t>
+  </si>
+  <si>
+    <t>16.5</t>
   </si>
   <si>
     <t>20</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,1335 +453,1443 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-174.674</v>
+        <v>-155.427</v>
       </c>
       <c r="C2">
-        <v>-175.963</v>
+        <v>-159.268</v>
       </c>
       <c r="D2">
-        <v>-178.474845</v>
+        <v>-167.774</v>
       </c>
       <c r="E2">
-        <v>-178.982</v>
+        <v>-175.022</v>
       </c>
       <c r="F2">
-        <v>177.773</v>
+        <v>-175.684</v>
       </c>
       <c r="G2">
-        <v>172.399</v>
+        <v>178.015</v>
       </c>
       <c r="H2">
-        <v>171.076729628</v>
+        <v>171.141</v>
       </c>
       <c r="I2">
-        <v>165.418</v>
+        <v>169.392</v>
       </c>
       <c r="J2">
-        <v>16.834675</v>
+        <v>163.878</v>
       </c>
       <c r="K2">
-        <v>21.454</v>
+        <v>11.161</v>
       </c>
       <c r="L2">
-        <v>-18.189253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>6.647</v>
+      </c>
+      <c r="M2">
+        <v>-35.745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-175.115</v>
+        <v>-154.692</v>
       </c>
       <c r="C3">
-        <v>-176.394</v>
+        <v>-158.483</v>
       </c>
       <c r="D3">
-        <v>-178.564945</v>
+        <v>-167.329</v>
       </c>
       <c r="E3">
-        <v>-179.324</v>
+        <v>-174.909</v>
       </c>
       <c r="F3">
-        <v>177.57</v>
+        <v>-175.6</v>
       </c>
       <c r="G3">
-        <v>172.43</v>
+        <v>177.861</v>
       </c>
       <c r="H3">
-        <v>171.32465353</v>
+        <v>171.142</v>
       </c>
       <c r="I3">
-        <v>165.929</v>
+        <v>169.58</v>
       </c>
       <c r="J3">
-        <v>16.632795</v>
+        <v>164.291</v>
       </c>
       <c r="K3">
-        <v>16.116</v>
+        <v>11.184</v>
       </c>
       <c r="L3">
-        <v>-24.821622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.121</v>
+      </c>
+      <c r="M3">
+        <v>-43.295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-174.444</v>
+        <v>-154.369</v>
       </c>
       <c r="C4">
-        <v>-175.854</v>
+        <v>-157.983</v>
       </c>
       <c r="D4">
-        <v>-177.997262</v>
+        <v>-166.949</v>
       </c>
       <c r="E4">
-        <v>-178.964</v>
+        <v>-174.614</v>
       </c>
       <c r="F4">
-        <v>177.575</v>
+        <v>-175.317</v>
       </c>
       <c r="G4">
-        <v>171.88</v>
+        <v>177.924</v>
       </c>
       <c r="H4">
-        <v>170.52270402</v>
+        <v>170.574</v>
       </c>
       <c r="I4">
-        <v>164.952</v>
+        <v>168.836</v>
       </c>
       <c r="J4">
-        <v>17.352447</v>
+        <v>163.388</v>
       </c>
       <c r="K4">
-        <v>9.744999999999999</v>
+        <v>12.059</v>
       </c>
       <c r="L4">
-        <v>-19.687937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>-4.233</v>
+      </c>
+      <c r="M4">
+        <v>-36.834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-176.023</v>
+        <v>-155.824</v>
       </c>
       <c r="C5">
-        <v>-177.033</v>
+        <v>-159.488</v>
       </c>
       <c r="D5">
-        <v>-178.886877</v>
+        <v>-168.03</v>
       </c>
       <c r="E5">
-        <v>-179.725</v>
+        <v>-175.351</v>
       </c>
       <c r="F5">
-        <v>177.334</v>
+        <v>-176.018</v>
       </c>
       <c r="G5">
-        <v>172.289</v>
+        <v>177.64</v>
       </c>
       <c r="H5">
-        <v>171.0560999</v>
+        <v>170.906</v>
       </c>
       <c r="I5">
-        <v>165.707</v>
+        <v>169.357</v>
       </c>
       <c r="J5">
-        <v>18.60417</v>
+        <v>164.099</v>
       </c>
       <c r="K5">
-        <v>15.271</v>
+        <v>13.254</v>
       </c>
       <c r="L5">
-        <v>-12.9547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.005</v>
+      </c>
+      <c r="M5">
+        <v>-31.166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-175.256</v>
+        <v>-155.017</v>
       </c>
       <c r="C6">
-        <v>-176.527</v>
+        <v>-158.746</v>
       </c>
       <c r="D6">
-        <v>-178.584665</v>
+        <v>-167.496</v>
       </c>
       <c r="E6">
-        <v>-179.399</v>
+        <v>-175.055</v>
       </c>
       <c r="F6">
-        <v>177.361</v>
+        <v>-175.743</v>
       </c>
       <c r="G6">
-        <v>171.707</v>
+        <v>177.668</v>
       </c>
       <c r="H6">
-        <v>170.33031313</v>
+        <v>170.349</v>
       </c>
       <c r="I6">
-        <v>164.905</v>
+        <v>168.599</v>
       </c>
       <c r="J6">
-        <v>16.019485</v>
+        <v>163.3</v>
       </c>
       <c r="K6">
-        <v>12.425</v>
+        <v>10.679</v>
       </c>
       <c r="L6">
-        <v>-21.642983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>-1.248</v>
+      </c>
+      <c r="M6">
+        <v>-39.054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-176.41</v>
+        <v>-156.923</v>
       </c>
       <c r="C7">
-        <v>-177.227</v>
+        <v>-160.086</v>
       </c>
       <c r="D7">
-        <v>-178.936122</v>
+        <v>-168.283</v>
       </c>
       <c r="E7">
-        <v>-179.672</v>
+        <v>-175.359</v>
       </c>
       <c r="F7">
-        <v>177.443</v>
+        <v>-176.033</v>
       </c>
       <c r="G7">
-        <v>171.993</v>
+        <v>177.774</v>
       </c>
       <c r="H7">
-        <v>170.76752322</v>
+        <v>170.753</v>
       </c>
       <c r="I7">
-        <v>165.1</v>
+        <v>169.02</v>
       </c>
       <c r="J7">
-        <v>16.19852</v>
+        <v>163.476</v>
       </c>
       <c r="K7">
-        <v>2.729</v>
+        <v>10.963</v>
       </c>
       <c r="L7">
-        <v>-20.986635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>-11.394</v>
+      </c>
+      <c r="M7">
+        <v>-37.034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-175.239</v>
+        <v>-155.252</v>
       </c>
       <c r="C8">
-        <v>-176.585</v>
+        <v>-158.986</v>
       </c>
       <c r="D8">
-        <v>-178.742384</v>
+        <v>-167.74</v>
       </c>
       <c r="E8">
-        <v>-179.494</v>
+        <v>-175.168</v>
       </c>
       <c r="F8">
-        <v>177.28</v>
+        <v>-175.872</v>
       </c>
       <c r="G8">
-        <v>171.647</v>
+        <v>177.651</v>
       </c>
       <c r="H8">
-        <v>170.29802578</v>
+        <v>170.38</v>
       </c>
       <c r="I8">
-        <v>164.487</v>
+        <v>168.617</v>
       </c>
       <c r="J8">
-        <v>15.472818</v>
+        <v>162.897</v>
       </c>
       <c r="K8">
-        <v>5.64</v>
+        <v>10.163</v>
       </c>
       <c r="L8">
-        <v>-17.33593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>-8.285</v>
+      </c>
+      <c r="M8">
+        <v>-34.674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-175.177</v>
+        <v>-154.794</v>
       </c>
       <c r="C9">
-        <v>-176.532</v>
+        <v>-158.638</v>
       </c>
       <c r="D9">
-        <v>-178.56567</v>
+        <v>-167.483</v>
       </c>
       <c r="E9">
-        <v>-179.448</v>
+        <v>-175.05</v>
       </c>
       <c r="F9">
-        <v>177.496</v>
+        <v>-175.725</v>
       </c>
       <c r="G9">
-        <v>172.172</v>
+        <v>177.808</v>
       </c>
       <c r="H9">
-        <v>170.90380098</v>
+        <v>170.802</v>
       </c>
       <c r="I9">
-        <v>165.378</v>
+        <v>169.16</v>
       </c>
       <c r="J9">
-        <v>15.456474</v>
+        <v>163.743</v>
       </c>
       <c r="K9">
-        <v>4.795</v>
+        <v>10.152</v>
       </c>
       <c r="L9">
-        <v>-20.477227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>-8.342000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-36.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-171.674</v>
+        <v>-152.058</v>
       </c>
       <c r="C10">
-        <v>-174.246</v>
+        <v>-156.224</v>
       </c>
       <c r="D10">
-        <v>-177.717904</v>
+        <v>-165.936</v>
       </c>
       <c r="E10">
-        <v>-178.347</v>
+        <v>-174.231</v>
       </c>
       <c r="F10">
-        <v>177.681</v>
+        <v>-174.987</v>
       </c>
       <c r="G10">
-        <v>172.116</v>
+        <v>177.921</v>
       </c>
       <c r="H10">
-        <v>170.85557696</v>
+        <v>170.772</v>
       </c>
       <c r="I10">
-        <v>165.234</v>
+        <v>169.2</v>
       </c>
       <c r="J10">
-        <v>16.594915</v>
+        <v>163.669</v>
       </c>
       <c r="K10">
-        <v>8.472</v>
+        <v>11.396</v>
       </c>
       <c r="L10">
-        <v>-17.192075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>-4.962</v>
+      </c>
+      <c r="M10">
+        <v>-32.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-174.189</v>
+        <v>-153.916</v>
       </c>
       <c r="C11">
-        <v>-175.801</v>
+        <v>-157.56</v>
       </c>
       <c r="D11">
-        <v>-178.003309</v>
+        <v>-166.629</v>
       </c>
       <c r="E11">
-        <v>-178.843</v>
+        <v>-174.391</v>
       </c>
       <c r="F11">
-        <v>178.004</v>
+        <v>-175.097</v>
       </c>
       <c r="G11">
-        <v>172.685</v>
+        <v>178.306</v>
       </c>
       <c r="H11">
-        <v>171.0926384</v>
+        <v>171.317</v>
       </c>
       <c r="I11">
-        <v>165.346</v>
+        <v>169.441</v>
       </c>
       <c r="J11">
-        <v>16.955326</v>
+        <v>163.753</v>
       </c>
       <c r="K11">
-        <v>14.339</v>
+        <v>11.387</v>
       </c>
       <c r="L11">
-        <v>-11.802584</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.642</v>
+      </c>
+      <c r="M11">
+        <v>-28.332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-174.885</v>
+        <v>-154.501</v>
       </c>
       <c r="C12">
-        <v>-176.331</v>
+        <v>-158.451</v>
       </c>
       <c r="D12">
-        <v>-178.528265</v>
+        <v>-167.4</v>
       </c>
       <c r="E12">
-        <v>-179.28</v>
+        <v>-174.954</v>
       </c>
       <c r="F12">
-        <v>177.567</v>
+        <v>-175.655</v>
       </c>
       <c r="G12">
-        <v>171.842</v>
+        <v>177.853</v>
       </c>
       <c r="H12">
-        <v>170.62445753</v>
+        <v>170.617</v>
       </c>
       <c r="I12">
-        <v>164.833</v>
+        <v>168.881</v>
       </c>
       <c r="J12">
-        <v>15.435827</v>
+        <v>163.195</v>
       </c>
       <c r="K12">
-        <v>8.846</v>
+        <v>10.094</v>
       </c>
       <c r="L12">
-        <v>-22.783892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>-5.021</v>
+      </c>
+      <c r="M12">
+        <v>-39.479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-175.648</v>
+        <v>-155.559</v>
       </c>
       <c r="C13">
-        <v>-176.763</v>
+        <v>-159.257</v>
       </c>
       <c r="D13">
-        <v>-178.679044</v>
+        <v>-167.774</v>
       </c>
       <c r="E13">
-        <v>-179.527</v>
+        <v>-175.162</v>
       </c>
       <c r="F13">
-        <v>177.408</v>
+        <v>-175.848</v>
       </c>
       <c r="G13">
-        <v>171.597</v>
+        <v>177.708</v>
       </c>
       <c r="H13">
-        <v>170.3156104</v>
+        <v>170.303</v>
       </c>
       <c r="I13">
-        <v>164.641</v>
+        <v>168.646</v>
       </c>
       <c r="J13">
-        <v>15.526039</v>
+        <v>163.018</v>
       </c>
       <c r="K13">
-        <v>6.726</v>
+        <v>10.194</v>
       </c>
       <c r="L13">
-        <v>-19.809918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>-6.968</v>
+      </c>
+      <c r="M13">
+        <v>-37.414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-174.976</v>
+        <v>-154.772</v>
       </c>
       <c r="C14">
-        <v>-176.428</v>
+        <v>-158.602</v>
       </c>
       <c r="D14">
-        <v>-178.575199</v>
+        <v>-167.451</v>
       </c>
       <c r="E14">
-        <v>-179.431</v>
+        <v>-175.055</v>
       </c>
       <c r="F14">
-        <v>177.451</v>
+        <v>-175.764</v>
       </c>
       <c r="G14">
-        <v>172.27</v>
+        <v>177.727</v>
       </c>
       <c r="H14">
-        <v>171.0250954</v>
+        <v>170.808</v>
       </c>
       <c r="I14">
-        <v>165.604</v>
+        <v>169.336</v>
       </c>
       <c r="J14">
-        <v>15.213899</v>
+        <v>163.923</v>
       </c>
       <c r="K14">
-        <v>4.157</v>
+        <v>9.679</v>
       </c>
       <c r="L14">
-        <v>-17.629823</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>-9.182</v>
+      </c>
+      <c r="M14">
+        <v>-36.614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-176.26</v>
+        <v>-156.066</v>
       </c>
       <c r="C15">
-        <v>-177.091</v>
+        <v>-159.624</v>
       </c>
       <c r="D15">
-        <v>-178.65711</v>
+        <v>-167.922</v>
       </c>
       <c r="E15">
-        <v>-179.528</v>
+        <v>-175.116</v>
       </c>
       <c r="F15">
-        <v>177.659</v>
+        <v>-175.784</v>
       </c>
       <c r="G15">
-        <v>172.339</v>
+        <v>177.94</v>
       </c>
       <c r="H15">
-        <v>170.9011002</v>
+        <v>170.922</v>
       </c>
       <c r="I15">
-        <v>165.145</v>
+        <v>169.179</v>
       </c>
       <c r="J15">
-        <v>16.416348</v>
+        <v>163.513</v>
       </c>
       <c r="K15">
-        <v>9.18</v>
+        <v>11.275</v>
       </c>
       <c r="L15">
-        <v>-15.505875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>-3.586</v>
+      </c>
+      <c r="M15">
+        <v>-23.722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-175.317</v>
+        <v>-155.016</v>
       </c>
       <c r="C16">
-        <v>-176.463</v>
+        <v>-158.668</v>
       </c>
       <c r="D16">
-        <v>-178.48967</v>
+        <v>-167.411</v>
       </c>
       <c r="E16">
-        <v>-179.35</v>
+        <v>-174.937</v>
       </c>
       <c r="F16">
-        <v>177.534</v>
+        <v>-175.611</v>
       </c>
       <c r="G16">
-        <v>172.092</v>
+        <v>177.827</v>
       </c>
       <c r="H16">
-        <v>170.6621647</v>
+        <v>170.729</v>
       </c>
       <c r="I16">
-        <v>165.136</v>
+        <v>168.99</v>
       </c>
       <c r="J16">
-        <v>15.916572</v>
+        <v>163.582</v>
       </c>
       <c r="K16">
-        <v>7.974</v>
+        <v>10.72</v>
       </c>
       <c r="L16">
-        <v>-15.053533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>-5.243</v>
+      </c>
+      <c r="M16">
+        <v>-32.139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-174.4</v>
+        <v>-153.954</v>
       </c>
       <c r="C17">
-        <v>-175.911</v>
+        <v>-157.803</v>
       </c>
       <c r="D17">
-        <v>-178.404588</v>
+        <v>-166.97</v>
       </c>
       <c r="E17">
-        <v>-179.129</v>
+        <v>-174.77</v>
       </c>
       <c r="F17">
-        <v>177.563</v>
+        <v>-175.464</v>
       </c>
       <c r="G17">
-        <v>172.292</v>
+        <v>177.85</v>
       </c>
       <c r="H17">
-        <v>171.19615792</v>
+        <v>171.06</v>
       </c>
       <c r="I17">
-        <v>165.559</v>
+        <v>169.472</v>
       </c>
       <c r="J17">
-        <v>15.197699</v>
+        <v>163.903</v>
       </c>
       <c r="K17">
-        <v>-1.641</v>
+        <v>10.377</v>
       </c>
       <c r="L17">
-        <v>-24.069118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>-14.563</v>
+      </c>
+      <c r="M17">
+        <v>-38.354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-175.147</v>
+        <v>-155.215</v>
       </c>
       <c r="C18">
-        <v>-176.387</v>
+        <v>-158.843</v>
       </c>
       <c r="D18">
-        <v>-178.517319</v>
+        <v>-167.427</v>
       </c>
       <c r="E18">
-        <v>-179.3</v>
+        <v>-174.942</v>
       </c>
       <c r="F18">
-        <v>177.54</v>
+        <v>-175.654</v>
       </c>
       <c r="G18">
-        <v>172.17</v>
+        <v>177.847</v>
       </c>
       <c r="H18">
-        <v>171.03506659</v>
+        <v>170.83</v>
       </c>
       <c r="I18">
-        <v>165.748</v>
+        <v>169.327</v>
       </c>
       <c r="J18">
-        <v>15.356224</v>
+        <v>164.101</v>
       </c>
       <c r="K18">
-        <v>2.119</v>
+        <v>10.234</v>
       </c>
       <c r="L18">
-        <v>-15.241521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>-11.002</v>
+      </c>
+      <c r="M18">
+        <v>-32.159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-176.118</v>
+        <v>-155.907</v>
       </c>
       <c r="C19">
-        <v>-177.138</v>
+        <v>-159.51</v>
       </c>
       <c r="D19">
-        <v>-179.002525</v>
+        <v>-168.08</v>
       </c>
       <c r="E19">
-        <v>-179.833</v>
+        <v>-175.481</v>
       </c>
       <c r="F19">
-        <v>177.138</v>
+        <v>-176.145</v>
       </c>
       <c r="G19">
-        <v>171.594</v>
+        <v>177.492</v>
       </c>
       <c r="H19">
-        <v>170.245598</v>
+        <v>170.225</v>
       </c>
       <c r="I19">
-        <v>164.796</v>
+        <v>168.622</v>
       </c>
       <c r="J19">
-        <v>15.079539</v>
+        <v>163.227</v>
       </c>
       <c r="K19">
-        <v>5.095</v>
+        <v>9.789</v>
       </c>
       <c r="L19">
-        <v>-27.035839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>-9.321999999999999</v>
+      </c>
+      <c r="M19">
+        <v>-45.382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-174.55</v>
+        <v>-155.139</v>
       </c>
       <c r="C20">
-        <v>-175.969</v>
+        <v>-158.801</v>
       </c>
       <c r="D20">
-        <v>-178.533348</v>
+        <v>-167.592</v>
       </c>
       <c r="E20">
-        <v>-179.139</v>
+        <v>-174.998</v>
       </c>
       <c r="F20">
-        <v>177.565</v>
+        <v>-175.698</v>
       </c>
       <c r="G20">
-        <v>171.588</v>
+        <v>177.834</v>
       </c>
       <c r="H20">
-        <v>170.25158946</v>
+        <v>170.169</v>
       </c>
       <c r="I20">
-        <v>164.848</v>
+        <v>168.554</v>
       </c>
       <c r="J20">
-        <v>15.723315</v>
+        <v>163.344</v>
       </c>
       <c r="K20">
-        <v>3.529</v>
+        <v>10.67</v>
       </c>
       <c r="L20">
-        <v>-20.968678</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>-9.412000000000001</v>
+      </c>
+      <c r="M20">
+        <v>-38.883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-176.052</v>
+        <v>-156.189</v>
       </c>
       <c r="C21">
-        <v>-177.041</v>
+        <v>-159.844</v>
       </c>
       <c r="D21">
-        <v>-178.958482</v>
+        <v>-168.233</v>
       </c>
       <c r="E21">
-        <v>-179.732</v>
+        <v>-175.475</v>
       </c>
       <c r="F21">
-        <v>177.195</v>
+        <v>-176.145</v>
       </c>
       <c r="G21">
-        <v>171.272</v>
+        <v>177.506</v>
       </c>
       <c r="H21">
-        <v>169.7598062</v>
+        <v>170.008</v>
       </c>
       <c r="I21">
-        <v>163.97</v>
+        <v>168.106</v>
       </c>
       <c r="J21">
-        <v>16.023503</v>
+        <v>162.409</v>
       </c>
       <c r="K21">
-        <v>1.957</v>
+        <v>10.697</v>
       </c>
       <c r="L21">
-        <v>-14.600167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>-12.32</v>
+      </c>
+      <c r="M21">
+        <v>-30.656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-175.23</v>
+        <v>-154.919</v>
       </c>
       <c r="C22">
-        <v>-176.534</v>
+        <v>-158.615</v>
       </c>
       <c r="D22">
-        <v>-178.610003</v>
+        <v>-167.467</v>
       </c>
       <c r="E22">
-        <v>-179.412</v>
+        <v>-175.015</v>
       </c>
       <c r="F22">
-        <v>177.568</v>
+        <v>-175.725</v>
       </c>
       <c r="G22">
-        <v>172.431</v>
+        <v>177.861</v>
       </c>
       <c r="H22">
-        <v>171.3433106</v>
+        <v>171.191</v>
       </c>
       <c r="I22">
-        <v>166.007</v>
+        <v>169.685</v>
       </c>
       <c r="J22">
-        <v>17.318554</v>
+        <v>164.364</v>
       </c>
       <c r="K22">
-        <v>4.681</v>
+        <v>11.818</v>
       </c>
       <c r="L22">
-        <v>-14.55005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>-9.545999999999999</v>
+      </c>
+      <c r="M22">
+        <v>-31.977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-173.917</v>
+        <v>-153.185</v>
       </c>
       <c r="C23">
-        <v>-175.52</v>
+        <v>-157.071</v>
       </c>
       <c r="D23">
-        <v>-177.921307</v>
+        <v>-166.375</v>
       </c>
       <c r="E23">
-        <v>-178.813</v>
+        <v>-174.28</v>
       </c>
       <c r="F23">
-        <v>177.865</v>
+        <v>-175.019</v>
       </c>
       <c r="G23">
-        <v>172.415</v>
+        <v>178.188</v>
       </c>
       <c r="H23">
-        <v>171.12127488</v>
+        <v>171.022</v>
       </c>
       <c r="I23">
-        <v>165.397</v>
+        <v>169.319</v>
       </c>
       <c r="J23">
-        <v>15.555894</v>
+        <v>163.78</v>
       </c>
       <c r="K23">
-        <v>0.996</v>
+        <v>10.714</v>
       </c>
       <c r="L23">
-        <v>-27.23431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>-11.691</v>
+      </c>
+      <c r="M23">
+        <v>-42.214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-174.22</v>
+        <v>-153.937</v>
       </c>
       <c r="C24">
-        <v>-175.809</v>
+        <v>-157.875</v>
       </c>
       <c r="D24">
-        <v>-177.993631</v>
+        <v>-166.899</v>
       </c>
       <c r="E24">
-        <v>-178.857</v>
+        <v>-174.497</v>
       </c>
       <c r="F24">
-        <v>177.922</v>
+        <v>-175.193</v>
       </c>
       <c r="G24">
-        <v>172.438</v>
+        <v>178.229</v>
       </c>
       <c r="H24">
-        <v>171.0530494</v>
+        <v>170.955</v>
       </c>
       <c r="I24">
-        <v>165.537</v>
+        <v>169.32</v>
       </c>
       <c r="J24">
-        <v>16.544169</v>
+        <v>163.932</v>
       </c>
       <c r="K24">
-        <v>14.606</v>
+        <v>11.213</v>
       </c>
       <c r="L24">
-        <v>-21.016203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.499</v>
+      </c>
+      <c r="M24">
+        <v>-37.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-173.825</v>
+        <v>-155.393</v>
       </c>
       <c r="C25">
-        <v>-175.485</v>
+        <v>-158.954</v>
       </c>
       <c r="D25">
-        <v>-178.430936</v>
+        <v>-167.67</v>
       </c>
       <c r="E25">
-        <v>-178.911</v>
+        <v>-175.103</v>
       </c>
       <c r="F25">
-        <v>177.695</v>
+        <v>-175.784</v>
       </c>
       <c r="G25">
-        <v>171.9</v>
+        <v>177.853</v>
       </c>
       <c r="H25">
-        <v>170.44628766</v>
+        <v>170.457</v>
       </c>
       <c r="I25">
-        <v>165.055</v>
+        <v>168.757</v>
       </c>
       <c r="J25">
-        <v>15.950657</v>
+        <v>163.411</v>
       </c>
       <c r="K25">
-        <v>-3.297</v>
+        <v>10.839</v>
       </c>
       <c r="L25">
-        <v>-18.679056</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>-16.258</v>
+      </c>
+      <c r="M25">
+        <v>-34.412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-174.695</v>
+        <v>-154.635</v>
       </c>
       <c r="C26">
-        <v>-176.238</v>
+        <v>-158.449</v>
       </c>
       <c r="D26">
-        <v>-178.659424</v>
+        <v>-167.398</v>
       </c>
       <c r="E26">
-        <v>-179.4</v>
+        <v>-175.033</v>
       </c>
       <c r="F26">
-        <v>177.223</v>
+        <v>-175.757</v>
       </c>
       <c r="G26">
-        <v>171.54</v>
+        <v>177.526</v>
       </c>
       <c r="H26">
-        <v>170.25822319</v>
+        <v>170.256</v>
       </c>
       <c r="I26">
-        <v>164.677</v>
+        <v>168.545</v>
       </c>
       <c r="J26">
-        <v>17.756184</v>
+        <v>163.105</v>
       </c>
       <c r="K26">
-        <v>2.7</v>
+        <v>12.759</v>
       </c>
       <c r="L26">
-        <v>-18.059047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>-10.456</v>
+      </c>
+      <c r="M26">
+        <v>-32.583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-176.622</v>
+        <v>-156.74</v>
       </c>
       <c r="C27">
-        <v>-177.318</v>
+        <v>-160.199</v>
       </c>
       <c r="D27">
-        <v>-178.904378</v>
+        <v>-168.356</v>
       </c>
       <c r="E27">
-        <v>-179.68</v>
+        <v>-175.363</v>
       </c>
       <c r="F27">
-        <v>177.5</v>
+        <v>-176.028</v>
       </c>
       <c r="G27">
-        <v>171.776</v>
+        <v>177.79</v>
       </c>
       <c r="H27">
-        <v>170.49932003</v>
+        <v>170.497</v>
       </c>
       <c r="I27">
-        <v>165.162</v>
+        <v>168.796</v>
       </c>
       <c r="J27">
-        <v>16.1478</v>
+        <v>163.557</v>
       </c>
       <c r="K27">
-        <v>1.734</v>
+        <v>11.291</v>
       </c>
       <c r="L27">
-        <v>-17.855022</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>-10.804</v>
+      </c>
+      <c r="M27">
+        <v>-32.131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-175.743</v>
+        <v>-155.402</v>
       </c>
       <c r="C28">
-        <v>-176.746</v>
+        <v>-159.186</v>
       </c>
       <c r="D28">
-        <v>-178.561959</v>
+        <v>-167.735</v>
       </c>
       <c r="E28">
-        <v>-179.451</v>
+        <v>-175.097</v>
       </c>
       <c r="F28">
-        <v>177.537</v>
+        <v>-175.786</v>
       </c>
       <c r="G28">
-        <v>171.829</v>
+        <v>177.807</v>
       </c>
       <c r="H28">
-        <v>170.3482945</v>
+        <v>170.424</v>
       </c>
       <c r="I28">
-        <v>164.717</v>
+        <v>168.573</v>
       </c>
       <c r="J28">
-        <v>16.824495</v>
+        <v>163.015</v>
       </c>
       <c r="K28">
-        <v>10.593</v>
+        <v>11.741</v>
       </c>
       <c r="L28">
-        <v>-16.726102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>-3.602</v>
+      </c>
+      <c r="M28">
+        <v>-31.947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-175.516</v>
+        <v>-155.511</v>
       </c>
       <c r="C29">
-        <v>-176.623</v>
+        <v>-159.04</v>
       </c>
       <c r="D29">
-        <v>-178.486815</v>
+        <v>-167.642</v>
       </c>
       <c r="E29">
-        <v>-179.34</v>
+        <v>-174.977</v>
       </c>
       <c r="F29">
-        <v>177.672</v>
+        <v>-175.663</v>
       </c>
       <c r="G29">
-        <v>172.74</v>
+        <v>177.977</v>
       </c>
       <c r="H29">
-        <v>171.6157947</v>
+        <v>171.306</v>
       </c>
       <c r="I29">
-        <v>166.341</v>
+        <v>169.873</v>
       </c>
       <c r="J29">
-        <v>15.889201</v>
+        <v>164.676</v>
       </c>
       <c r="K29">
-        <v>3.448</v>
+        <v>10.498</v>
       </c>
       <c r="L29">
-        <v>-21.254585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>-9.829000000000001</v>
+      </c>
+      <c r="M29">
+        <v>-37.934</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-174.353</v>
+        <v>-155.245</v>
       </c>
       <c r="C30">
-        <v>-175.855</v>
+        <v>-158.914</v>
       </c>
       <c r="D30">
-        <v>-178.613158</v>
+        <v>-167.616</v>
       </c>
       <c r="E30">
-        <v>-179.106</v>
+        <v>-175.066</v>
       </c>
       <c r="F30">
-        <v>177.54</v>
+        <v>-175.77</v>
       </c>
       <c r="G30">
-        <v>171.912</v>
+        <v>177.785</v>
       </c>
       <c r="H30">
-        <v>170.562661352</v>
+        <v>170.491</v>
       </c>
       <c r="I30">
-        <v>164.817</v>
+        <v>168.853</v>
       </c>
       <c r="J30">
-        <v>16.786677</v>
+        <v>163.24</v>
       </c>
       <c r="K30">
-        <v>6.194</v>
+        <v>11.659</v>
       </c>
       <c r="L30">
-        <v>-19.933994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>-7.22</v>
+      </c>
+      <c r="M30">
+        <v>-34.467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-175.472</v>
+        <v>-155.673</v>
       </c>
       <c r="C31">
-        <v>-176.626</v>
+        <v>-159.105</v>
       </c>
       <c r="D31">
-        <v>-178.820133</v>
+        <v>-167.91</v>
       </c>
       <c r="E31">
-        <v>-179.536</v>
+        <v>-175.303</v>
       </c>
       <c r="F31">
-        <v>177.383</v>
+        <v>-175.985</v>
       </c>
       <c r="G31">
-        <v>171.819</v>
+        <v>177.675</v>
       </c>
       <c r="H31">
-        <v>170.47133961</v>
+        <v>170.531</v>
       </c>
       <c r="I31">
-        <v>164.84</v>
+        <v>168.785</v>
       </c>
       <c r="J31">
-        <v>16.873539</v>
+        <v>163.364</v>
       </c>
       <c r="K31">
-        <v>-0.049</v>
+        <v>11.56</v>
       </c>
       <c r="L31">
-        <v>-21.497736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>-14.179</v>
+      </c>
+      <c r="M31">
+        <v>-39.009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-176.889</v>
+        <v>-157.23</v>
       </c>
       <c r="C32">
-        <v>-177.646</v>
+        <v>-160.7</v>
       </c>
       <c r="D32">
-        <v>-179.25982</v>
+        <v>-168.74</v>
       </c>
       <c r="E32">
-        <v>-179.999</v>
+        <v>-175.704</v>
       </c>
       <c r="F32">
-        <v>177.234</v>
+        <v>-176.337</v>
       </c>
       <c r="G32">
-        <v>171.901</v>
+        <v>177.545</v>
       </c>
       <c r="H32">
-        <v>170.5323232</v>
+        <v>170.614</v>
       </c>
       <c r="I32">
-        <v>164.814</v>
+        <v>168.805</v>
       </c>
       <c r="J32">
-        <v>16.407383</v>
+        <v>163.178</v>
       </c>
       <c r="K32">
-        <v>11.345</v>
+        <v>11.109</v>
       </c>
       <c r="L32">
-        <v>-17.699046</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>-3.008</v>
+      </c>
+      <c r="M32">
+        <v>-33.216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-174.715</v>
+        <v>-154.545</v>
       </c>
       <c r="C33">
-        <v>-176.086</v>
+        <v>-158.311</v>
       </c>
       <c r="D33">
-        <v>-178.171799</v>
+        <v>-167.082</v>
       </c>
       <c r="E33">
-        <v>-179.131</v>
+        <v>-174.724</v>
       </c>
       <c r="F33">
-        <v>177.645</v>
+        <v>-175.448</v>
       </c>
       <c r="G33">
-        <v>172.294</v>
+        <v>177.95</v>
       </c>
       <c r="H33">
-        <v>171.033396477</v>
+        <v>170.957</v>
       </c>
       <c r="I33">
-        <v>165.454</v>
+        <v>169.28</v>
       </c>
       <c r="J33">
-        <v>16.452295</v>
+        <v>163.886</v>
       </c>
       <c r="K33">
-        <v>14.712</v>
+        <v>10.822</v>
       </c>
       <c r="L33">
-        <v>-23.244055</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0.441</v>
+      </c>
+      <c r="M33">
+        <v>-40.769</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-175.724</v>
+        <v>-155.562</v>
       </c>
       <c r="C34">
-        <v>-176.667</v>
+        <v>-159.204</v>
       </c>
       <c r="D34">
-        <v>-178.757855</v>
+        <v>-167.785</v>
       </c>
       <c r="E34">
-        <v>-179.515</v>
+        <v>-175.21</v>
       </c>
       <c r="F34">
-        <v>177.179</v>
+        <v>-175.883</v>
       </c>
       <c r="G34">
-        <v>171.478</v>
+        <v>177.47</v>
       </c>
       <c r="H34">
-        <v>169.896304</v>
+        <v>170.097</v>
       </c>
       <c r="I34">
-        <v>164.217</v>
+        <v>168.285</v>
       </c>
       <c r="J34">
-        <v>15.992608</v>
+        <v>162.547</v>
       </c>
       <c r="K34">
-        <v>10.814</v>
+        <v>10.659</v>
       </c>
       <c r="L34">
-        <v>-14.698231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>-1.869</v>
+      </c>
+      <c r="M34">
+        <v>-31.188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-173.437</v>
+        <v>-152.738</v>
       </c>
       <c r="C35">
-        <v>-175.305</v>
+        <v>-156.769</v>
       </c>
       <c r="D35">
-        <v>-177.753351</v>
+        <v>-166.159</v>
       </c>
       <c r="E35">
-        <v>-178.724</v>
+        <v>-174.234</v>
       </c>
       <c r="F35">
-        <v>177.791</v>
+        <v>-174.947</v>
       </c>
       <c r="G35">
-        <v>171.944</v>
+        <v>178.079</v>
       </c>
       <c r="H35">
-        <v>170.3401065</v>
+        <v>170.506</v>
       </c>
       <c r="I35">
-        <v>164.543</v>
+        <v>168.561</v>
       </c>
       <c r="J35">
-        <v>16.736566</v>
+        <v>162.981</v>
       </c>
       <c r="K35">
-        <v>7.315</v>
+        <v>12.045</v>
       </c>
       <c r="L35">
-        <v>-14.167236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>-5.763</v>
+      </c>
+      <c r="M35">
+        <v>-30.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-175.749</v>
+        <v>-155.689</v>
       </c>
       <c r="C36">
-        <v>-176.672</v>
+        <v>-159.319</v>
       </c>
       <c r="D36">
-        <v>-178.839332</v>
+        <v>-167.744</v>
       </c>
       <c r="E36">
-        <v>-179.5</v>
+        <v>-175.171</v>
       </c>
       <c r="F36">
-        <v>177.358</v>
+        <v>-175.894</v>
       </c>
       <c r="G36">
-        <v>171.893</v>
+        <v>177.657</v>
       </c>
       <c r="H36">
-        <v>170.5060743</v>
+        <v>170.578</v>
       </c>
       <c r="I36">
-        <v>164.841</v>
+        <v>168.795</v>
       </c>
       <c r="J36">
-        <v>16.019443</v>
+        <v>163.271</v>
       </c>
       <c r="K36">
-        <v>11.156</v>
+        <v>11.045</v>
       </c>
       <c r="L36">
-        <v>-21.8156449</v>
+        <v>-1.705</v>
+      </c>
+      <c r="M36">
+        <v>-35.944</v>
       </c>
     </row>
   </sheetData>
